--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H2">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I2">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J2">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.758717697653713</v>
+        <v>2.03673</v>
       </c>
       <c r="N2">
-        <v>0.758717697653713</v>
+        <v>6.110189999999999</v>
       </c>
       <c r="O2">
-        <v>0.007768514801162408</v>
+        <v>0.01936773727681928</v>
       </c>
       <c r="P2">
-        <v>0.007768514801162408</v>
+        <v>0.01936773727681929</v>
       </c>
       <c r="Q2">
-        <v>0.2609887579309829</v>
+        <v>0.7483550249899998</v>
       </c>
       <c r="R2">
-        <v>0.2609887579309829</v>
+        <v>6.735195224909998</v>
       </c>
       <c r="S2">
-        <v>5.185550364039857E-05</v>
+        <v>0.0001334889059685787</v>
       </c>
       <c r="T2">
-        <v>5.185550364039857E-05</v>
+        <v>0.0001334889059685788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H3">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I3">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J3">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72684840603074</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N3">
-        <v>5.72684840603074</v>
+        <v>17.985979</v>
       </c>
       <c r="O3">
-        <v>0.0586372332474159</v>
+        <v>0.05701094662169078</v>
       </c>
       <c r="P3">
-        <v>0.0586372332474159</v>
+        <v>0.0570109466216908</v>
       </c>
       <c r="Q3">
-        <v>1.96995938933688</v>
+        <v>2.202860756214555</v>
       </c>
       <c r="R3">
-        <v>1.96995938933688</v>
+        <v>19.825746805931</v>
       </c>
       <c r="S3">
-        <v>0.0003914085690702809</v>
+        <v>0.0003929384617309498</v>
       </c>
       <c r="T3">
-        <v>0.0003914085690702809</v>
+        <v>0.0003929384617309498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H4">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I4">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J4">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.0532216382793</v>
+        <v>44.18044800000001</v>
       </c>
       <c r="N4">
-        <v>40.0532216382793</v>
+        <v>132.541344</v>
       </c>
       <c r="O4">
-        <v>0.4101051630842876</v>
+        <v>0.4201221122270384</v>
       </c>
       <c r="P4">
-        <v>0.4101051630842876</v>
+        <v>0.4201221122270385</v>
       </c>
       <c r="Q4">
-        <v>13.77777347073291</v>
+        <v>16.233207281824</v>
       </c>
       <c r="R4">
-        <v>13.77777347073291</v>
+        <v>146.098865536416</v>
       </c>
       <c r="S4">
-        <v>0.002737487193057989</v>
+        <v>0.002895621741085801</v>
       </c>
       <c r="T4">
-        <v>0.002737487193057989</v>
+        <v>0.002895621741085801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H5">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I5">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J5">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.4158025735799</v>
+        <v>43.515133</v>
       </c>
       <c r="N5">
-        <v>43.4158025735799</v>
+        <v>130.545399</v>
       </c>
       <c r="O5">
-        <v>0.444534648315449</v>
+        <v>0.413795477805035</v>
       </c>
       <c r="P5">
-        <v>0.444534648315449</v>
+        <v>0.4137954778050351</v>
       </c>
       <c r="Q5">
-        <v>14.93445641678836</v>
+        <v>15.98875081314566</v>
       </c>
       <c r="R5">
-        <v>14.93445641678836</v>
+        <v>143.898757318311</v>
       </c>
       <c r="S5">
-        <v>0.002967306964589402</v>
+        <v>0.002852016466221442</v>
       </c>
       <c r="T5">
-        <v>0.002967306964589402</v>
+        <v>0.002852016466221443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H6">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I6">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J6">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.71114336371581</v>
+        <v>7.982920666666668</v>
       </c>
       <c r="N6">
-        <v>7.71114336371581</v>
+        <v>23.948762</v>
       </c>
       <c r="O6">
-        <v>0.0789544405516852</v>
+        <v>0.07591144146435268</v>
       </c>
       <c r="P6">
-        <v>0.0789544405516852</v>
+        <v>0.07591144146435271</v>
       </c>
       <c r="Q6">
-        <v>2.652530361355123</v>
+        <v>2.933161879579778</v>
       </c>
       <c r="R6">
-        <v>2.652530361355123</v>
+        <v>26.398456916218</v>
       </c>
       <c r="S6">
-        <v>0.00052702767314557</v>
+        <v>0.0005232069769813823</v>
       </c>
       <c r="T6">
-        <v>0.00052702767314557</v>
+        <v>0.0005232069769813823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9406491250565</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H7">
-        <v>42.9406491250565</v>
+        <v>1.102289</v>
       </c>
       <c r="I7">
-        <v>0.833266415887348</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J7">
-        <v>0.833266415887348</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.758717697653713</v>
+        <v>1.45041</v>
       </c>
       <c r="N7">
-        <v>0.758717697653713</v>
+        <v>4.35123</v>
       </c>
       <c r="O7">
-        <v>0.007768514801162408</v>
+        <v>0.01379228460506373</v>
       </c>
       <c r="P7">
-        <v>0.007768514801162408</v>
+        <v>0.01379228460506374</v>
       </c>
       <c r="Q7">
-        <v>32.57983043991879</v>
+        <v>0.5329236628299999</v>
       </c>
       <c r="R7">
-        <v>32.57983043991879</v>
+        <v>4.796312965469999</v>
       </c>
       <c r="S7">
-        <v>0.006473242485132413</v>
+        <v>9.50610263048545E-05</v>
       </c>
       <c r="T7">
-        <v>0.006473242485132413</v>
+        <v>9.506102630485452E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H8">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J8">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.72684840603074</v>
+        <v>2.03673</v>
       </c>
       <c r="N8">
-        <v>5.72684840603074</v>
+        <v>6.110189999999999</v>
       </c>
       <c r="O8">
-        <v>0.0586372332474159</v>
+        <v>0.01936773727681928</v>
       </c>
       <c r="P8">
-        <v>0.0586372332474159</v>
+        <v>0.01936773727681929</v>
       </c>
       <c r="Q8">
-        <v>245.9145879957551</v>
+        <v>90.11537072560999</v>
       </c>
       <c r="R8">
-        <v>245.9145879957551</v>
+        <v>811.0383365304898</v>
       </c>
       <c r="S8">
-        <v>0.04886043718562469</v>
+        <v>0.01607445911020015</v>
       </c>
       <c r="T8">
-        <v>0.04886043718562469</v>
+        <v>0.01607445911020015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H9">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J9">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.0532216382793</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N9">
-        <v>40.0532216382793</v>
+        <v>17.985979</v>
       </c>
       <c r="O9">
-        <v>0.4101051630842876</v>
+        <v>0.05701094662169078</v>
       </c>
       <c r="P9">
-        <v>0.4101051630842876</v>
+        <v>0.0570109466216908</v>
       </c>
       <c r="Q9">
-        <v>1719.911336697472</v>
+        <v>265.2639550403566</v>
       </c>
       <c r="R9">
-        <v>1719.911336697472</v>
+        <v>2387.375595363209</v>
       </c>
       <c r="S9">
-        <v>0.3417268593801406</v>
+        <v>0.04731684022795014</v>
       </c>
       <c r="T9">
-        <v>0.3417268593801406</v>
+        <v>0.04731684022795014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H10">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J10">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.4158025735799</v>
+        <v>44.18044800000001</v>
       </c>
       <c r="N10">
-        <v>43.4158025735799</v>
+        <v>132.541344</v>
       </c>
       <c r="O10">
-        <v>0.444534648315449</v>
+        <v>0.4201221122270384</v>
       </c>
       <c r="P10">
-        <v>0.444534648315449</v>
+        <v>0.4201221122270385</v>
       </c>
       <c r="Q10">
-        <v>1864.30274479482</v>
+        <v>1954.769385408736</v>
       </c>
       <c r="R10">
-        <v>1864.30274479482</v>
+        <v>17592.92446867862</v>
       </c>
       <c r="S10">
-        <v>0.3704157931395569</v>
+        <v>0.348684805961676</v>
       </c>
       <c r="T10">
-        <v>0.3704157931395569</v>
+        <v>0.3486848059616759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.9406491250565</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H11">
-        <v>42.9406491250565</v>
+        <v>132.735371</v>
       </c>
       <c r="I11">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J11">
-        <v>0.833266415887348</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.71114336371581</v>
+        <v>43.515133</v>
       </c>
       <c r="N11">
-        <v>7.71114336371581</v>
+        <v>130.545399</v>
       </c>
       <c r="O11">
-        <v>0.0789544405516852</v>
+        <v>0.413795477805035</v>
       </c>
       <c r="P11">
-        <v>0.0789544405516852</v>
+        <v>0.4137954778050351</v>
       </c>
       <c r="Q11">
-        <v>331.1215015343286</v>
+        <v>1925.332440956447</v>
       </c>
       <c r="R11">
-        <v>331.1215015343286</v>
+        <v>17327.99196860803</v>
       </c>
       <c r="S11">
-        <v>0.0657900836968934</v>
+        <v>0.3434339485761104</v>
       </c>
       <c r="T11">
-        <v>0.0657900836968934</v>
+        <v>0.3434339485761104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H12">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I12">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J12">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.758717697653713</v>
+        <v>7.982920666666668</v>
       </c>
       <c r="N12">
-        <v>0.758717697653713</v>
+        <v>23.948762</v>
       </c>
       <c r="O12">
-        <v>0.007768514801162408</v>
+        <v>0.07591144146435268</v>
       </c>
       <c r="P12">
-        <v>0.007768514801162408</v>
+        <v>0.07591144146435271</v>
       </c>
       <c r="Q12">
-        <v>6.258117011194998</v>
+        <v>353.2053121178558</v>
       </c>
       <c r="R12">
-        <v>6.258117011194998</v>
+        <v>3178.847809060702</v>
       </c>
       <c r="S12">
-        <v>0.001243416812389595</v>
+        <v>0.06300350652089629</v>
       </c>
       <c r="T12">
-        <v>0.001243416812389595</v>
+        <v>0.06300350652089629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H13">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I13">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J13">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.72684840603074</v>
+        <v>1.45041</v>
       </c>
       <c r="N13">
-        <v>5.72684840603074</v>
+        <v>4.35123</v>
       </c>
       <c r="O13">
-        <v>0.0586372332474159</v>
+        <v>0.01379228460506373</v>
       </c>
       <c r="P13">
-        <v>0.0586372332474159</v>
+        <v>0.01379228460506374</v>
       </c>
       <c r="Q13">
-        <v>47.23665671849581</v>
+        <v>64.17356981736999</v>
       </c>
       <c r="R13">
-        <v>47.23665671849581</v>
+        <v>577.5621283563299</v>
       </c>
       <c r="S13">
-        <v>0.00938538749272093</v>
+        <v>0.011447052990836</v>
       </c>
       <c r="T13">
-        <v>0.00938538749272093</v>
+        <v>0.011447052990836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>8.24828131800251</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H14">
-        <v>8.24828131800251</v>
+        <v>1.150786</v>
       </c>
       <c r="I14">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532276</v>
       </c>
       <c r="J14">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532274</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.0532216382793</v>
+        <v>2.03673</v>
       </c>
       <c r="N14">
-        <v>40.0532216382793</v>
+        <v>6.110189999999999</v>
       </c>
       <c r="O14">
-        <v>0.4101051630842876</v>
+        <v>0.01936773727681928</v>
       </c>
       <c r="P14">
-        <v>0.4101051630842876</v>
+        <v>0.01936773727681929</v>
       </c>
       <c r="Q14">
-        <v>330.370239764833</v>
+        <v>0.78128012326</v>
       </c>
       <c r="R14">
-        <v>330.370239764833</v>
+        <v>7.03152110934</v>
       </c>
       <c r="S14">
-        <v>0.06564081651108891</v>
+        <v>0.0001393619678178381</v>
       </c>
       <c r="T14">
-        <v>0.06564081651108891</v>
+        <v>0.0001393619678178381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>8.24828131800251</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H15">
-        <v>8.24828131800251</v>
+        <v>1.150786</v>
       </c>
       <c r="I15">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532276</v>
       </c>
       <c r="J15">
-        <v>0.1600584982091483</v>
+        <v>0.007195573020532274</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.4158025735799</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N15">
-        <v>43.4158025735799</v>
+        <v>17.985979</v>
       </c>
       <c r="O15">
-        <v>0.444534648315449</v>
+        <v>0.05701094662169078</v>
       </c>
       <c r="P15">
-        <v>0.444534648315449</v>
+        <v>0.0570109466216908</v>
       </c>
       <c r="Q15">
-        <v>358.1057532737444</v>
+        <v>2.299779203277111</v>
       </c>
       <c r="R15">
-        <v>358.1057532737444</v>
+        <v>20.698012829494</v>
       </c>
       <c r="S15">
-        <v>0.07115154821130266</v>
+        <v>0.0004102264293860439</v>
       </c>
       <c r="T15">
-        <v>0.07115154821130266</v>
+        <v>0.0004102264293860439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.150786</v>
+      </c>
+      <c r="I16">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J16">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>44.18044800000001</v>
+      </c>
+      <c r="N16">
+        <v>132.541344</v>
+      </c>
+      <c r="O16">
+        <v>0.4201221122270384</v>
+      </c>
+      <c r="P16">
+        <v>0.4201221122270385</v>
+      </c>
+      <c r="Q16">
+        <v>16.947413677376</v>
+      </c>
+      <c r="R16">
+        <v>152.526723096384</v>
+      </c>
+      <c r="S16">
+        <v>0.003023019336069911</v>
+      </c>
+      <c r="T16">
+        <v>0.003023019336069911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.150786</v>
+      </c>
+      <c r="I17">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J17">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.515133</v>
+      </c>
+      <c r="N17">
+        <v>130.545399</v>
+      </c>
+      <c r="O17">
+        <v>0.413795477805035</v>
+      </c>
+      <c r="P17">
+        <v>0.4137954778050351</v>
+      </c>
+      <c r="Q17">
+        <v>16.69220194817933</v>
+      </c>
+      <c r="R17">
+        <v>150.229817533614</v>
+      </c>
+      <c r="S17">
+        <v>0.002977495576112172</v>
+      </c>
+      <c r="T17">
+        <v>0.002977495576112172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.150786</v>
+      </c>
+      <c r="I18">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J18">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.982920666666668</v>
+      </c>
+      <c r="N18">
+        <v>23.948762</v>
+      </c>
+      <c r="O18">
+        <v>0.07591144146435268</v>
+      </c>
+      <c r="P18">
+        <v>0.07591144146435271</v>
+      </c>
+      <c r="Q18">
+        <v>3.062211114103556</v>
+      </c>
+      <c r="R18">
+        <v>27.55990002693201</v>
+      </c>
+      <c r="S18">
+        <v>0.0005462263201506112</v>
+      </c>
+      <c r="T18">
+        <v>0.0005462263201506113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.150786</v>
+      </c>
+      <c r="I19">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J19">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>1.45041</v>
+      </c>
+      <c r="N19">
+        <v>4.35123</v>
+      </c>
+      <c r="O19">
+        <v>0.01379228460506373</v>
+      </c>
+      <c r="P19">
+        <v>0.01379228460506374</v>
+      </c>
+      <c r="Q19">
+        <v>0.55637050742</v>
+      </c>
+      <c r="R19">
+        <v>5.007334566780001</v>
+      </c>
+      <c r="S19">
+        <v>9.924339099569924E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.924339099569926E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H20">
+        <v>24.941277</v>
+      </c>
+      <c r="I20">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J20">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.03673</v>
+      </c>
+      <c r="N20">
+        <v>6.110189999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01936773727681928</v>
+      </c>
+      <c r="P20">
+        <v>0.01936773727681929</v>
+      </c>
+      <c r="Q20">
+        <v>16.93288236807</v>
+      </c>
+      <c r="R20">
+        <v>152.39594131263</v>
+      </c>
+      <c r="S20">
+        <v>0.00302042729283271</v>
+      </c>
+      <c r="T20">
+        <v>0.003020427292832711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H21">
+        <v>24.941277</v>
+      </c>
+      <c r="I21">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J21">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.995326333333334</v>
+      </c>
+      <c r="N21">
+        <v>17.985979</v>
+      </c>
+      <c r="O21">
+        <v>0.05701094662169078</v>
+      </c>
+      <c r="P21">
+        <v>0.0570109466216908</v>
+      </c>
+      <c r="Q21">
+        <v>49.843698261687</v>
+      </c>
+      <c r="R21">
+        <v>448.593284355183</v>
+      </c>
+      <c r="S21">
+        <v>0.008890941502623649</v>
+      </c>
+      <c r="T21">
+        <v>0.008890941502623649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H22">
+        <v>24.941277</v>
+      </c>
+      <c r="I22">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J22">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.18044800000001</v>
+      </c>
+      <c r="N22">
+        <v>132.541344</v>
+      </c>
+      <c r="O22">
+        <v>0.4201221122270384</v>
+      </c>
+      <c r="P22">
+        <v>0.4201221122270385</v>
+      </c>
+      <c r="Q22">
+        <v>367.305597184032</v>
+      </c>
+      <c r="R22">
+        <v>3305.750374656288</v>
+      </c>
+      <c r="S22">
+        <v>0.06551866518820677</v>
+      </c>
+      <c r="T22">
+        <v>0.06551866518820677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H23">
+        <v>24.941277</v>
+      </c>
+      <c r="I23">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J23">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>43.515133</v>
+      </c>
+      <c r="N23">
+        <v>130.545399</v>
+      </c>
+      <c r="O23">
+        <v>0.413795477805035</v>
+      </c>
+      <c r="P23">
+        <v>0.4137954778050351</v>
+      </c>
+      <c r="Q23">
+        <v>361.774328614947</v>
+      </c>
+      <c r="R23">
+        <v>3255.968957534523</v>
+      </c>
+      <c r="S23">
+        <v>0.06453201718659093</v>
+      </c>
+      <c r="T23">
+        <v>0.06453201718659095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.24828131800251</v>
-      </c>
-      <c r="H16">
-        <v>8.24828131800251</v>
-      </c>
-      <c r="I16">
-        <v>0.1600584982091483</v>
-      </c>
-      <c r="J16">
-        <v>0.1600584982091483</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.71114336371581</v>
-      </c>
-      <c r="N16">
-        <v>7.71114336371581</v>
-      </c>
-      <c r="O16">
-        <v>0.0789544405516852</v>
-      </c>
-      <c r="P16">
-        <v>0.0789544405516852</v>
-      </c>
-      <c r="Q16">
-        <v>63.60367974737616</v>
-      </c>
-      <c r="R16">
-        <v>63.60367974737616</v>
-      </c>
-      <c r="S16">
-        <v>0.01263732918164621</v>
-      </c>
-      <c r="T16">
-        <v>0.01263732918164621</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H24">
+        <v>24.941277</v>
+      </c>
+      <c r="I24">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J24">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.982920666666668</v>
+      </c>
+      <c r="N24">
+        <v>23.948762</v>
+      </c>
+      <c r="O24">
+        <v>0.07591144146435268</v>
+      </c>
+      <c r="P24">
+        <v>0.07591144146435271</v>
+      </c>
+      <c r="Q24">
+        <v>66.36807853878601</v>
+      </c>
+      <c r="R24">
+        <v>597.3127068490741</v>
+      </c>
+      <c r="S24">
+        <v>0.0118385016463244</v>
+      </c>
+      <c r="T24">
+        <v>0.0118385016463244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H25">
+        <v>24.941277</v>
+      </c>
+      <c r="I25">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J25">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.45041</v>
+      </c>
+      <c r="N25">
+        <v>4.35123</v>
+      </c>
+      <c r="O25">
+        <v>0.01379228460506373</v>
+      </c>
+      <c r="P25">
+        <v>0.01379228460506374</v>
+      </c>
+      <c r="Q25">
+        <v>12.05835919119</v>
+      </c>
+      <c r="R25">
+        <v>108.52523272071</v>
+      </c>
+      <c r="S25">
+        <v>0.002150927196927178</v>
+      </c>
+      <c r="T25">
+        <v>0.002150927196927179</v>
       </c>
     </row>
   </sheetData>
